--- a/dataSet.xlsx
+++ b/dataSet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Documents\ISU\Honors\HonorsProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Documents\ISU\Honors\HonorsProject\ComedyCollegeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD26F7EB-1699-4AA1-839E-04E63BD444A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA58D17F-807E-4341-AFEF-90FB766A8B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{9DCEE0AE-6EE9-4686-BBF9-5BADB3A4DC01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9DCEE0AE-6EE9-4686-BBF9-5BADB3A4DC01}"/>
   </bookViews>
   <sheets>
     <sheet name="Comedian" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -505,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD73E9F6-7E7E-4006-A81E-40B4F6B838A3}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -524,30 +524,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3C8D3A-EB73-4B65-8AAF-C3DAD677A218}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -632,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB48393A-C823-4075-B153-1700C22DDE52}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/dataSet.xlsx
+++ b/dataSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Documents\ISU\Honors\HonorsProject\ComedyCollegeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA58D17F-807E-4341-AFEF-90FB766A8B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E6FAFD-0205-4A53-BD84-1092CB177770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9DCEE0AE-6EE9-4686-BBF9-5BADB3A4DC01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9DCEE0AE-6EE9-4686-BBF9-5BADB3A4DC01}"/>
   </bookViews>
   <sheets>
     <sheet name="Comedian" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="216">
   <si>
     <t>id</t>
   </si>
@@ -96,13 +96,604 @@
   </si>
   <si>
     <t>word</t>
+  </si>
+  <si>
+    <t>Bohan</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Jakob</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Shaggy</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>fall_2013</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>order_in_night</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>mshop</t>
+  </si>
+  <si>
+    <t>notes:</t>
+  </si>
+  <si>
+    <t>thanks for int appreciation</t>
+  </si>
+  <si>
+    <t>miss the dogs</t>
+  </si>
+  <si>
+    <t>cultural difference trick or treat</t>
+  </si>
+  <si>
+    <t>michael jackson trying to get gf</t>
+  </si>
+  <si>
+    <t>pussy</t>
+  </si>
+  <si>
+    <t>gentleman dancing</t>
+  </si>
+  <si>
+    <t>justin beiber pickup style</t>
+  </si>
+  <si>
+    <t>human resource from eng companies dance partner</t>
+  </si>
+  <si>
+    <t>second shift</t>
+  </si>
+  <si>
+    <t>teach thai chee</t>
+  </si>
+  <si>
+    <t>caucasian</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>red lobster</t>
+  </si>
+  <si>
+    <t>love having beard</t>
+  </si>
+  <si>
+    <t>joined twitter nice muffins</t>
+  </si>
+  <si>
+    <t>went to docs office</t>
+  </si>
+  <si>
+    <t>want to tell your kids</t>
+  </si>
+  <si>
+    <t>going out to bars don't make bet drunk</t>
+  </si>
+  <si>
+    <t>watching bridezillas</t>
+  </si>
+  <si>
+    <t>bitches</t>
+  </si>
+  <si>
+    <t>don’t always go to walmart 9/11</t>
+  </si>
+  <si>
+    <t>walmart 69 cents</t>
+  </si>
+  <si>
+    <t>walmart 420</t>
+  </si>
+  <si>
+    <t>shoot and skeet</t>
+  </si>
+  <si>
+    <t>checkered</t>
+  </si>
+  <si>
+    <t>thanks for making follow bohan</t>
+  </si>
+  <si>
+    <t>ran dsm half marathon</t>
+  </si>
+  <si>
+    <t>marathon until died</t>
+  </si>
+  <si>
+    <t>sports protect nipples</t>
+  </si>
+  <si>
+    <t>carbo loading</t>
+  </si>
+  <si>
+    <t>ran half with gf</t>
+  </si>
+  <si>
+    <t>not like that bohan</t>
+  </si>
+  <si>
+    <t>bleeding nipples</t>
+  </si>
+  <si>
+    <t>lindsey red lobster</t>
+  </si>
+  <si>
+    <t>dogs</t>
+  </si>
+  <si>
+    <t>during race, looking at signs</t>
+  </si>
+  <si>
+    <t>grim reaper chasing elderly</t>
+  </si>
+  <si>
+    <t>infomertial for juggling</t>
+  </si>
+  <si>
+    <t>bohan</t>
+  </si>
+  <si>
+    <t>4 ball juggling</t>
+  </si>
+  <si>
+    <t>actual 4 ball juggling</t>
+  </si>
+  <si>
+    <t>9 ball juggling</t>
+  </si>
+  <si>
+    <t>ball snacks</t>
+  </si>
+  <si>
+    <t>hair in your package</t>
+  </si>
+  <si>
+    <t>TA for lab</t>
+  </si>
+  <si>
+    <t>dangerous to drop class</t>
+  </si>
+  <si>
+    <t>stair sort</t>
+  </si>
+  <si>
+    <t>high school austria trip</t>
+  </si>
+  <si>
+    <t>raison cookies</t>
+  </si>
+  <si>
+    <t>feminism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tv jingles death metal bands </t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>blonde</t>
+  </si>
+  <si>
+    <t>from minnesota</t>
+  </si>
+  <si>
+    <t>huge hockey fan</t>
+  </si>
+  <si>
+    <t>polish potatoes famine</t>
+  </si>
+  <si>
+    <t>germine side</t>
+  </si>
+  <si>
+    <t>immigrant grandmother kazm radio</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>drive by shooting in small town</t>
+  </si>
+  <si>
+    <t>bitch</t>
+  </si>
+  <si>
+    <t>assholes</t>
+  </si>
+  <si>
+    <t>dammit</t>
+  </si>
+  <si>
+    <t>ncaa football</t>
+  </si>
+  <si>
+    <t>monica going down on bill</t>
+  </si>
+  <si>
+    <t>skydiving</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>gf cheating list</t>
+  </si>
+  <si>
+    <t>living in iowa - boring relatives</t>
+  </si>
+  <si>
+    <t>look at a map</t>
+  </si>
+  <si>
+    <t>stayed up watching anime - eyes hurt</t>
+  </si>
+  <si>
+    <t>talking to people is weird</t>
+  </si>
+  <si>
+    <t>read articles online</t>
+  </si>
+  <si>
+    <t>tuning out</t>
+  </si>
+  <si>
+    <t>go into similar things as parents</t>
+  </si>
+  <si>
+    <t>iowa state fair</t>
+  </si>
+  <si>
+    <t>seeing shared emails</t>
+  </si>
+  <si>
+    <t>why we had govt shutdown</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>im a lesbian, its FABULOUS</t>
+  </si>
+  <si>
+    <t>lesbihonest</t>
+  </si>
+  <si>
+    <t>being gay is great rainbows</t>
+  </si>
+  <si>
+    <t>tell the truth creepy guy party</t>
+  </si>
+  <si>
+    <t>piss off old people</t>
+  </si>
+  <si>
+    <t>gaydar</t>
+  </si>
+  <si>
+    <t>english major</t>
+  </si>
+  <si>
+    <t>turn out to be straight</t>
+  </si>
+  <si>
+    <t>born and raised in iowa</t>
+  </si>
+  <si>
+    <t>drive tractors around on the highway</t>
+  </si>
+  <si>
+    <t>number 1 party school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth animals </t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>cat people in the audience</t>
+  </si>
+  <si>
+    <t>cats are great</t>
+  </si>
+  <si>
+    <t>superstition cat in road</t>
+  </si>
+  <si>
+    <t>cat night vision</t>
+  </si>
+  <si>
+    <t>aspirin cat toxic</t>
+  </si>
+  <si>
+    <t>cats cant taste sweets</t>
+  </si>
+  <si>
+    <t>travel the world</t>
+  </si>
+  <si>
+    <t>getting arrested</t>
+  </si>
+  <si>
+    <t>90s kid</t>
+  </si>
+  <si>
+    <t>lessons from 90s</t>
+  </si>
+  <si>
+    <t>walk with limp, cyride lottery</t>
+  </si>
+  <si>
+    <t>signs beat iowa</t>
+  </si>
+  <si>
+    <t>feathery touch</t>
+  </si>
+  <si>
+    <t>relevant daily story</t>
+  </si>
+  <si>
+    <t>watch big bang theory</t>
+  </si>
+  <si>
+    <t>second to last night of haunuka</t>
+  </si>
+  <si>
+    <t>jewish republican</t>
+  </si>
+  <si>
+    <t>republican</t>
+  </si>
+  <si>
+    <t>looking forward to future</t>
+  </si>
+  <si>
+    <t>thanskgiving</t>
+  </si>
+  <si>
+    <t>thanksgiving relationship convos</t>
+  </si>
+  <si>
+    <t>ask if I have gf</t>
+  </si>
+  <si>
+    <t>asshole</t>
+  </si>
+  <si>
+    <t>holidays - call all loved ones</t>
+  </si>
+  <si>
+    <t>finals week</t>
+  </si>
+  <si>
+    <t>call grandmother</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>last applause I'll get all night</t>
+  </si>
+  <si>
+    <t>back in high school music</t>
+  </si>
+  <si>
+    <t>trombone player</t>
+  </si>
+  <si>
+    <t>difference bw trampoline and biola</t>
+  </si>
+  <si>
+    <t>guitar</t>
+  </si>
+  <si>
+    <t>conductor in road</t>
+  </si>
+  <si>
+    <t>tuba range</t>
+  </si>
+  <si>
+    <t>violinist</t>
+  </si>
+  <si>
+    <t>make people think you have life</t>
+  </si>
+  <si>
+    <t>facebook life</t>
+  </si>
+  <si>
+    <t>refreshing facebook</t>
+  </si>
+  <si>
+    <t>facebook problems</t>
+  </si>
+  <si>
+    <t>most awkward things</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>coffee and obesi</t>
+  </si>
+  <si>
+    <t>guormet coffee</t>
+  </si>
+  <si>
+    <t>first webcam</t>
+  </si>
+  <si>
+    <t>jackass</t>
+  </si>
+  <si>
+    <t>dick</t>
+  </si>
+  <si>
+    <t>coffee best friend facebook</t>
+  </si>
+  <si>
+    <t>coffee trading</t>
+  </si>
+  <si>
+    <t>90s great time</t>
+  </si>
+  <si>
+    <t>beanie babies</t>
+  </si>
+  <si>
+    <t>fashion disasters</t>
+  </si>
+  <si>
+    <t>honors</t>
+  </si>
+  <si>
+    <t>oh mg</t>
+  </si>
+  <si>
+    <t>photon bar</t>
+  </si>
+  <si>
+    <t>two women</t>
+  </si>
+  <si>
+    <t>fruedian slips</t>
+  </si>
+  <si>
+    <t>Heisenberg</t>
+  </si>
+  <si>
+    <t>pavlov</t>
+  </si>
+  <si>
+    <t>higgs boson</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>spring_2017</t>
+  </si>
+  <si>
+    <t>support one person you known here</t>
+  </si>
+  <si>
+    <t>little bit about myself</t>
+  </si>
+  <si>
+    <t>similar to toddlers</t>
+  </si>
+  <si>
+    <t>be more supportive of me dad</t>
+  </si>
+  <si>
+    <t>whose also in the audience</t>
+  </si>
+  <si>
+    <t>OCD problem</t>
+  </si>
+  <si>
+    <t>sperm banks</t>
+  </si>
+  <si>
+    <t>talkes balls to be a sperm donor</t>
+  </si>
+  <si>
+    <t>take that to the bank</t>
+  </si>
+  <si>
+    <t>ocd learn skills</t>
+  </si>
+  <si>
+    <t>cock</t>
+  </si>
+  <si>
+    <t>ear issues kids in that crosswalk</t>
+  </si>
+  <si>
+    <t>less with every hit</t>
+  </si>
+  <si>
+    <t>watching football on tv</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>arrested for weed</t>
+  </si>
+  <si>
+    <t>flavor of detergent</t>
+  </si>
+  <si>
+    <t>three exams</t>
+  </si>
+  <si>
+    <t>bad listener. Beat meat and exhausted</t>
+  </si>
+  <si>
+    <t>race joke</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +705,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,11 +736,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,21 +1056,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B827C29-44E2-489B-8546-533E9E5D5E18}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,8 +1094,272 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
@@ -503,9 +1367,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD73E9F6-7E7E-4006-A81E-40B4F6B838A3}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -515,6 +1381,14 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -524,19 +1398,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3C8D3A-EB73-4B65-8AAF-C3DAD677A218}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,6 +1420,164 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -554,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD712393-B0C6-46C8-9871-8B2D586FE8A5}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="L150" sqref="L150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +1601,7 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -583,6 +1616,2949 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.15416666666666667</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.16527777777777777</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.22291666666666665</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.23194444444444443</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.24513888888888888</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.17430555555555557</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="E36">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="D44" s="4">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="D45" s="4">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4">
+        <v>9.375E-2</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.11319444444444444</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.11527777777777777</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.12986111111111112</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.13819444444444443</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.2076388888888889</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.23819444444444446</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D53" s="4">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" s="4">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="D54" s="4">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="G54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" s="4">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="D55" s="4">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="E55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56" s="4">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.12222222222222223</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.18541666666666667</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="D64" s="4">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" s="4">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="D65" s="4">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="G65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D66" s="4">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67" s="4">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="D67" s="4">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68" s="4">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.10902777777777778</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.12430555555555556</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.15763888888888888</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.18472222222222223</v>
+      </c>
+      <c r="E71">
+        <v>6</v>
+      </c>
+      <c r="G71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E72">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>10</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0.21458333333333335</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E73">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>11</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.24513888888888888</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="G74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0.24583333333333335</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="G75" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="D77" s="4">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="E77">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78" s="4">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="D78" s="4">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="G78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79" s="4">
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="D79" s="4">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="G79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80" s="4">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D80" s="4">
+        <v>8.2638888888888887E-2</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
+      <c r="G80" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81" s="4">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="D81" s="4">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="G81" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0.1173611111111111</v>
+      </c>
+      <c r="E82">
+        <v>6</v>
+      </c>
+      <c r="G82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="G83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>9</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0.13472222222222222</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="E84">
+        <v>7</v>
+      </c>
+      <c r="G84" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>10</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85" s="4">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="G85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>11</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86" s="4">
+        <v>0.20208333333333331</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.21597222222222223</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>12</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="G87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>13</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0.2298611111111111</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="G88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>14</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0.24444444444444446</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="G89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>8</v>
+      </c>
+      <c r="C90" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="G90" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91" s="4">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D91" s="4">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="G91" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92" s="4">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="D92" s="4">
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="G92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93" s="4">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="D93" s="4">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="G93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94" s="4">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="D94" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+      <c r="G94" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>6</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95" s="4">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+      <c r="G95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>7</v>
+      </c>
+      <c r="B96">
+        <v>8</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0.16388888888888889</v>
+      </c>
+      <c r="E96">
+        <v>7</v>
+      </c>
+      <c r="G96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0.17083333333333331</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0.18194444444444444</v>
+      </c>
+      <c r="E97">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>9</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="E98">
+        <v>7</v>
+      </c>
+      <c r="G98" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>10</v>
+      </c>
+      <c r="B99">
+        <v>8</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0.24513888888888888</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="E99">
+        <v>7</v>
+      </c>
+      <c r="G99" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>11</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101" s="4">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="D101" s="4">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+      <c r="G101" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>9</v>
+      </c>
+      <c r="C102" s="4">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="D102" s="4">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="E102">
+        <v>7</v>
+      </c>
+      <c r="G102" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>9</v>
+      </c>
+      <c r="C103" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="D103" s="4">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="E103">
+        <v>6</v>
+      </c>
+      <c r="G103" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="C104" s="4">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="D104" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E104">
+        <v>7</v>
+      </c>
+      <c r="G104" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>9</v>
+      </c>
+      <c r="C105" s="4">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="D105" s="4">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="E105">
+        <v>6</v>
+      </c>
+      <c r="G105" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>6</v>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106" s="4">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="D106" s="4">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="G106" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>7</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107" s="4">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="D107" s="4">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="E107">
+        <v>5</v>
+      </c>
+      <c r="G107" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>9</v>
+      </c>
+      <c r="C108" s="4">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E108">
+        <v>8</v>
+      </c>
+      <c r="G108" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>9</v>
+      </c>
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="C109" s="4">
+        <v>0.11041666666666666</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="E109">
+        <v>6</v>
+      </c>
+      <c r="G109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>10</v>
+      </c>
+      <c r="B110">
+        <v>9</v>
+      </c>
+      <c r="C110" s="4">
+        <v>0.12222222222222223</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0.13680555555555554</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="G110" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>11</v>
+      </c>
+      <c r="B111">
+        <v>9</v>
+      </c>
+      <c r="C111" s="4">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+      <c r="G111" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>12</v>
+      </c>
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="E112">
+        <v>7</v>
+      </c>
+      <c r="G112" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>13</v>
+      </c>
+      <c r="B113">
+        <v>9</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0.19027777777777777</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="E113">
+        <v>7</v>
+      </c>
+      <c r="G113" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>14</v>
+      </c>
+      <c r="B114">
+        <v>9</v>
+      </c>
+      <c r="C114" s="4">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0.21319444444444444</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+      <c r="G114" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>15</v>
+      </c>
+      <c r="B115">
+        <v>9</v>
+      </c>
+      <c r="C115" s="4">
+        <v>0.21875</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0.22361111111111109</v>
+      </c>
+      <c r="E115">
+        <v>6</v>
+      </c>
+      <c r="G115" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>16</v>
+      </c>
+      <c r="B116">
+        <v>9</v>
+      </c>
+      <c r="C116" s="4">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0.2388888888888889</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>17</v>
+      </c>
+      <c r="B117">
+        <v>9</v>
+      </c>
+      <c r="C117" s="4">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0.25416666666666665</v>
+      </c>
+      <c r="E117">
+        <v>6</v>
+      </c>
+      <c r="G117" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>18</v>
+      </c>
+      <c r="B118">
+        <v>9</v>
+      </c>
+      <c r="C118" s="4">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E118">
+        <v>6</v>
+      </c>
+      <c r="G118" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>19</v>
+      </c>
+      <c r="B119">
+        <v>9</v>
+      </c>
+      <c r="C119" s="4">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="E119">
+        <v>5</v>
+      </c>
+      <c r="G119" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>20</v>
+      </c>
+      <c r="B120">
+        <v>9</v>
+      </c>
+      <c r="C120" s="4">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>21</v>
+      </c>
+      <c r="B121">
+        <v>9</v>
+      </c>
+      <c r="C121" s="4">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0.3444444444444445</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="G121" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>22</v>
+      </c>
+      <c r="B122">
+        <v>9</v>
+      </c>
+      <c r="C122" s="4">
+        <v>0.34652777777777777</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="G122" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>23</v>
+      </c>
+      <c r="B123">
+        <v>9</v>
+      </c>
+      <c r="C123" s="4">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="G123" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>24</v>
+      </c>
+      <c r="B124">
+        <v>9</v>
+      </c>
+      <c r="C124" s="4">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E124">
+        <v>7</v>
+      </c>
+      <c r="G124" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>25</v>
+      </c>
+      <c r="B125">
+        <v>9</v>
+      </c>
+      <c r="C125" s="4">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="D125" s="4">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="E125">
+        <v>6</v>
+      </c>
+      <c r="G125" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>26</v>
+      </c>
+      <c r="B126">
+        <v>9</v>
+      </c>
+      <c r="C126" s="4">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="D126" s="4">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="G126" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>27</v>
+      </c>
+      <c r="B127">
+        <v>9</v>
+      </c>
+      <c r="C127" s="4">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>28</v>
+      </c>
+      <c r="B128">
+        <v>9</v>
+      </c>
+      <c r="C128" s="4">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="G128" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>29</v>
+      </c>
+      <c r="B129">
+        <v>9</v>
+      </c>
+      <c r="C129" s="4">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="D129" s="4">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="E129">
+        <v>6</v>
+      </c>
+      <c r="G129" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>30</v>
+      </c>
+      <c r="B130">
+        <v>9</v>
+      </c>
+      <c r="C130" s="4">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="E130">
+        <v>6</v>
+      </c>
+      <c r="G130" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>10</v>
+      </c>
+      <c r="C131" s="4">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="D131" s="4">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>10</v>
+      </c>
+      <c r="C132" s="4">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="D132" s="4">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+      <c r="G132" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>10</v>
+      </c>
+      <c r="C133" s="4">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="D133" s="4">
+        <v>6.0416666666666667E-2</v>
+      </c>
+      <c r="E133">
+        <v>7</v>
+      </c>
+      <c r="G133" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>4</v>
+      </c>
+      <c r="B134">
+        <v>10</v>
+      </c>
+      <c r="C134" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D134" s="4">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="E134">
+        <v>9</v>
+      </c>
+      <c r="G134" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>5</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+      <c r="C135" s="4">
+        <v>9.375E-2</v>
+      </c>
+      <c r="D135" s="4">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="E135">
+        <v>7</v>
+      </c>
+      <c r="G135" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <v>10</v>
+      </c>
+      <c r="C136" s="4">
+        <v>0.10347222222222223</v>
+      </c>
+      <c r="D136" s="4">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="E136">
+        <v>7</v>
+      </c>
+      <c r="G136" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>7</v>
+      </c>
+      <c r="B137">
+        <v>10</v>
+      </c>
+      <c r="C137" s="4">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="D137" s="4">
+        <v>0.13472222222222222</v>
+      </c>
+      <c r="E137">
+        <v>7</v>
+      </c>
+      <c r="G137" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>8</v>
+      </c>
+      <c r="B138">
+        <v>10</v>
+      </c>
+      <c r="C138" s="4">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="D138" s="4">
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="E138">
+        <v>6</v>
+      </c>
+      <c r="G138" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>9</v>
+      </c>
+      <c r="B139">
+        <v>10</v>
+      </c>
+      <c r="C139" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D139" s="4">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="E139">
+        <v>7</v>
+      </c>
+      <c r="G139" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>10</v>
+      </c>
+      <c r="B140">
+        <v>10</v>
+      </c>
+      <c r="C140" s="4">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="D140" s="4">
+        <v>0.19166666666666665</v>
+      </c>
+      <c r="E140">
+        <v>7</v>
+      </c>
+      <c r="G140" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>11</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141" s="4">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="D141" s="4">
+        <v>0.22291666666666665</v>
+      </c>
+      <c r="E141">
+        <v>5</v>
+      </c>
+      <c r="G141" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>12</v>
+      </c>
+      <c r="B142">
+        <v>10</v>
+      </c>
+      <c r="C142" s="4">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D142" s="4">
+        <v>0.23124999999999998</v>
+      </c>
+      <c r="E142">
+        <v>7</v>
+      </c>
+      <c r="G142" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>13</v>
+      </c>
+      <c r="B143">
+        <v>10</v>
+      </c>
+      <c r="C143" s="4">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="D143" s="4">
+        <v>0.24722222222222223</v>
+      </c>
+      <c r="E143">
+        <v>7</v>
+      </c>
+      <c r="G143" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>14</v>
+      </c>
+      <c r="B144">
+        <v>10</v>
+      </c>
+      <c r="C144" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D144" s="4">
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="E144">
+        <v>6</v>
+      </c>
+      <c r="G144" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>15</v>
+      </c>
+      <c r="B145">
+        <v>10</v>
+      </c>
+      <c r="C145" s="4">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="D145" s="4">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="E145">
+        <v>8</v>
+      </c>
+      <c r="G145" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>16</v>
+      </c>
+      <c r="B146">
+        <v>10</v>
+      </c>
+      <c r="C146" s="4">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="D146" s="4">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="E146">
+        <v>7</v>
+      </c>
+      <c r="G146" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>17</v>
+      </c>
+      <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147" s="4">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="D147" s="4">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="G147" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>18</v>
+      </c>
+      <c r="B148">
+        <v>10</v>
+      </c>
+      <c r="C148" s="4">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="D148" s="4">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="E148">
+        <v>7</v>
+      </c>
+      <c r="G148" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -592,31 +4568,154 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C5C11F-027F-4463-BDC8-B05BEC678505}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -626,10 +4725,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB48393A-C823-4075-B153-1700C22DDE52}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +4751,370 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.20277777777777781</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.17083333333333331</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.21736111111111112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.23124999999999998</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.27916666666666667</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.18263888888888891</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.18472222222222223</v>
+      </c>
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.26527777777777778</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.28055555555555556</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.23194444444444443</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.25208333333333333</v>
+      </c>
+      <c r="D23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>17</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.25625000000000003</v>
+      </c>
+      <c r="D24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.19027777777777777</v>
+      </c>
+      <c r="D26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.24097222222222223</v>
+      </c>
+      <c r="D27" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
